--- a/Input/Tables.xlsx
+++ b/Input/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julia\TradLifeModel\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512B945-67B3-47B7-92F5-35DF86AD2042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0424A-AD37-4EDE-B42B-FDB96733A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" firstSheet="2" activeTab="17" xr2:uid="{DD655EA7-41E6-405D-B86D-7806049C0A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" xr2:uid="{DD655EA7-41E6-405D-B86D-7806049C0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="death_ben" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>Table Type</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>tax_rate</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>UK AM92 and AF92 Ultimate Rates with Extension to Juvenile Ages</t>
   </si>
 </sst>
 </file>
@@ -605,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,12 +645,17 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1713A79B-D4ED-486B-8C7B-F821E71221B8}">
-      <formula1>"Mult by Duration"</formula1>
+      <formula1>"Mult by Duration, User Defined Table"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{C578C5E4-538C-4ED0-A516-BE486101ACC1}">
+      <formula1>"Mult by Duration, User Defined"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6834,9 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0061369-7D52-4CA7-B619-3F52AD95C67C}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:XFD9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8407,7 +8416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E323629-EB40-45A8-9AED-842C65B1CCF4}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9888,7 +9897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302CAFF-1A61-4CDE-B261-80562839908E}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -10345,6 +10354,526 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
         <v>1</v>
       </c>
     </row>
@@ -12554,7 +13083,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12640,9 +13169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01540C8-B3AD-4608-8D0B-4A87788D02AD}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12670,10 +13197,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="11">
-        <v>1.8460000000000002E-3</v>
+        <v>3.5990000000000002E-3</v>
       </c>
       <c r="C2" s="10">
-        <v>1.3675625000000001E-3</v>
+        <v>2.6150000000000001E-3</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -12685,10 +13212,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="11">
-        <v>4.5924999999999997E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="C3" s="10">
-        <v>3.9831250000000001E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -12700,10 +13227,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11">
-        <v>2.9200000000000005E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="C4" s="10">
-        <v>2.540625E-4</v>
+        <v>2.92E-4</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -12715,10 +13242,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11">
-        <v>2.2425E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="C5" s="10">
-        <v>1.9599999999999999E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -12730,10 +13257,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="11">
-        <v>1.8674999999999999E-4</v>
+        <v>2.31E-4</v>
       </c>
       <c r="C6" s="10">
-        <v>1.6518749999999997E-4</v>
+        <v>1.65E-4</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -12745,10 +13272,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="11">
-        <v>1.6699999999999999E-4</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="C7" s="10">
-        <v>1.47625E-4</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -12760,10 +13287,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="11">
-        <v>1.5249999999999999E-4</v>
+        <v>1.8799999999999999E-4</v>
       </c>
       <c r="C8" s="10">
-        <v>1.3525000000000001E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -12775,10 +13302,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="11">
-        <v>1.4249999999999999E-4</v>
+        <v>1.76E-4</v>
       </c>
       <c r="C9" s="10">
-        <v>1.2687499999999998E-4</v>
+        <v>1.17E-4</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -12790,10 +13317,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="11">
-        <v>1.35E-4</v>
+        <v>1.64E-4</v>
       </c>
       <c r="C10" s="10">
-        <v>1.2E-4</v>
+        <v>1.13E-4</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -12805,10 +13332,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11">
-        <v>1.3099999999999999E-4</v>
+        <v>1.6200000000000001E-4</v>
       </c>
       <c r="C11" s="10">
-        <v>1.1574999999999999E-4</v>
+        <v>1.01E-4</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -12820,10 +13347,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="11">
-        <v>1.2999999999999999E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="C12" s="10">
-        <v>1.1574999999999999E-4</v>
+        <v>1.01E-4</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -12835,10 +13362,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="11">
-        <v>1.3099999999999999E-4</v>
+        <v>1.5799999999999999E-4</v>
       </c>
       <c r="C13" s="10">
-        <v>1.18375E-4</v>
+        <v>1.01E-4</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -12850,10 +13377,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>1.405E-4</v>
+        <v>1.64E-4</v>
       </c>
       <c r="C14" s="10">
-        <v>1.2656249999999999E-4</v>
+        <v>1.01E-4</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -12865,10 +13392,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="11">
-        <v>1.6375E-4</v>
+        <v>1.9599999999999999E-4</v>
       </c>
       <c r="C15" s="10">
-        <v>1.4631250000000001E-4</v>
+        <v>1.01E-4</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -12880,10 +13407,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="11">
-        <v>2.0550000000000001E-4</v>
+        <v>2.43E-4</v>
       </c>
       <c r="C16" s="10">
-        <v>1.785E-4</v>
+        <v>1.15E-4</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -12895,10 +13422,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="11">
-        <v>2.5950000000000002E-4</v>
+        <v>3.3E-4</v>
       </c>
       <c r="C17" s="10">
-        <v>2.2025000000000001E-4</v>
+        <v>1.34E-4</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -12910,10 +13437,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="11">
-        <v>3.3649999999999999E-4</v>
+        <v>4.2299999999999998E-4</v>
       </c>
       <c r="C18" s="10">
-        <v>2.61375E-4</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -12925,10 +13452,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="11">
-        <v>3.86E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="C19" s="10">
-        <v>2.8049999999999999E-4</v>
+        <v>1.7200000000000001E-4</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -12940,10 +13467,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="11">
-        <v>3.86E-4</v>
+        <v>5.9400000000000002E-4</v>
       </c>
       <c r="C20" s="10">
-        <v>2.8393750000000001E-4</v>
+        <v>1.7799999999999999E-4</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -12955,10 +13482,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="11">
-        <v>3.8675E-4</v>
+        <v>5.8699999999999996E-4</v>
       </c>
       <c r="C21" s="10">
-        <v>2.8831249999999999E-4</v>
+        <v>1.85E-4</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -12970,10 +13497,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="11">
-        <v>3.8850000000000001E-4</v>
+        <v>5.8200000000000005E-4</v>
       </c>
       <c r="C22" s="10">
-        <v>2.9356249999999999E-4</v>
+        <v>1.93E-4</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -12985,10 +13512,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="11">
-        <v>3.9075000000000004E-4</v>
+        <v>5.7700000000000004E-4</v>
       </c>
       <c r="C23" s="10">
-        <v>2.9968750000000004E-4</v>
+        <v>2.02E-4</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -13000,10 +13527,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="11">
-        <v>3.9400000000000004E-4</v>
+        <v>5.7200000000000003E-4</v>
       </c>
       <c r="C24" s="10">
-        <v>3.0687499999999996E-4</v>
+        <v>2.12E-4</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -13015,10 +13542,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="11">
-        <v>3.9849999999999998E-4</v>
+        <v>5.6899999999999995E-4</v>
       </c>
       <c r="C25" s="10">
-        <v>3.1512499999999998E-4</v>
+        <v>2.23E-4</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -13030,10 +13557,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="11">
-        <v>4.0399999999999995E-4</v>
+        <v>5.6700000000000001E-4</v>
       </c>
       <c r="C26" s="10">
-        <v>3.2450000000000003E-4</v>
+        <v>2.3499999999999999E-4</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -13045,10 +13572,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="11">
-        <v>4.1100000000000002E-4</v>
+        <v>5.6599999999999999E-4</v>
       </c>
       <c r="C27" s="10">
-        <v>3.3543750000000002E-4</v>
+        <v>2.4800000000000001E-4</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -13060,10 +13587,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="11">
-        <v>4.1974999999999998E-4</v>
+        <v>5.6700000000000001E-4</v>
       </c>
       <c r="C28" s="10">
-        <v>3.4793749999999994E-4</v>
+        <v>2.63E-4</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -13075,10 +13602,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="11">
-        <v>4.2999999999999994E-4</v>
+        <v>5.6999999999999998E-4</v>
       </c>
       <c r="C29" s="10">
-        <v>3.6200000000000002E-4</v>
+        <v>2.7900000000000001E-4</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -13090,10 +13617,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="11">
-        <v>4.4200000000000001E-4</v>
+        <v>5.7399999999999997E-4</v>
       </c>
       <c r="C30" s="10">
-        <v>3.7812499999999999E-4</v>
+        <v>2.9700000000000001E-4</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -13105,10 +13632,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="11">
-        <v>4.5649999999999998E-4</v>
+        <v>5.8E-4</v>
       </c>
       <c r="C31" s="10">
-        <v>3.965625E-4</v>
+        <v>3.1700000000000001E-4</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -13120,10 +13647,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="11">
-        <v>4.7375E-4</v>
+        <v>5.9000000000000003E-4</v>
       </c>
       <c r="C32" s="10">
-        <v>4.1756250000000002E-4</v>
+        <v>3.39E-4</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -13135,10 +13662,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="11">
-        <v>4.9350000000000002E-4</v>
+        <v>6.02E-4</v>
       </c>
       <c r="C33" s="10">
-        <v>4.4125000000000002E-4</v>
+        <v>3.6400000000000001E-4</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -13150,10 +13677,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="9">
-        <v>5.1650000000000003E-4</v>
+        <v>6.1700000000000004E-4</v>
       </c>
       <c r="C34" s="8">
-        <v>4.6818750000000007E-4</v>
+        <v>3.9100000000000002E-4</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -13165,10 +13692,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="9">
-        <v>5.4325E-4</v>
+        <v>6.3599999999999996E-4</v>
       </c>
       <c r="C35" s="8">
-        <v>4.9856250000000009E-4</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -13180,10 +13707,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="9">
-        <v>5.7400000000000007E-4</v>
+        <v>6.6E-4</v>
       </c>
       <c r="C36" s="8">
-        <v>5.32625E-4</v>
+        <v>4.55E-4</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -13195,10 +13722,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>6.0950000000000002E-4</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C37" s="8">
-        <v>5.7118750000000008E-4</v>
+        <v>4.9200000000000003E-4</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -13210,10 +13737,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>6.5025E-4</v>
+        <v>7.2400000000000003E-4</v>
       </c>
       <c r="C38" s="8">
-        <v>6.146875E-4</v>
+        <v>5.3300000000000005E-4</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -13225,10 +13752,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>6.9650000000000007E-4</v>
+        <v>7.6499999999999995E-4</v>
       </c>
       <c r="C39" s="8">
-        <v>6.6343750000000007E-4</v>
+        <v>5.7899999999999998E-4</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -13240,10 +13767,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>7.4925000000000002E-4</v>
+        <v>8.1300000000000003E-4</v>
       </c>
       <c r="C40" s="8">
-        <v>7.1824999999999992E-4</v>
+        <v>6.29E-4</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -13255,10 +13782,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>8.0974999999999992E-4</v>
+        <v>8.7000000000000001E-4</v>
       </c>
       <c r="C41" s="8">
-        <v>7.8006249999999994E-4</v>
+        <v>6.8499999999999995E-4</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -13270,10 +13797,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>8.7849999999999994E-4</v>
+        <v>9.3700000000000001E-4</v>
       </c>
       <c r="C42" s="8">
-        <v>8.4949999999999999E-4</v>
+        <v>7.4700000000000005E-4</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -13285,10 +13812,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>9.5649999999999999E-4</v>
+        <v>1.0139999999999999E-3</v>
       </c>
       <c r="C43" s="8">
-        <v>9.2743750000000009E-4</v>
+        <v>8.1599999999999999E-4</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -13300,10 +13827,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>1.0452500000000002E-3</v>
+        <v>1.1039999999999999E-3</v>
       </c>
       <c r="C44" s="8">
-        <v>1.0149375E-3</v>
+        <v>8.92E-4</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -13315,10 +13842,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>1.1455E-3</v>
+        <v>1.2080000000000001E-3</v>
       </c>
       <c r="C45" s="8">
-        <v>1.1128749999999999E-3</v>
+        <v>9.77E-4</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -13330,10 +13857,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>1.2589999999999999E-3</v>
+        <v>1.3270000000000001E-3</v>
       </c>
       <c r="C46" s="8">
-        <v>1.2225625000000001E-3</v>
+        <v>1.07E-3</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -13345,10 +13872,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>1.38725E-3</v>
+        <v>1.4649999999999999E-3</v>
       </c>
       <c r="C47" s="8">
-        <v>1.3453125000000002E-3</v>
+        <v>1.1739999999999999E-3</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -13360,10 +13887,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>1.5319999999999999E-3</v>
+        <v>1.622E-3</v>
       </c>
       <c r="C48" s="8">
-        <v>1.482875E-3</v>
+        <v>1.2880000000000001E-3</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -13375,10 +13902,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>1.6955E-3</v>
+        <v>1.802E-3</v>
       </c>
       <c r="C49" s="8">
-        <v>1.63675E-3</v>
+        <v>1.4159999999999999E-3</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -13390,10 +13917,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>1.8794999999999999E-3</v>
+        <v>2.0079999999999998E-3</v>
       </c>
       <c r="C50" s="8">
-        <v>1.8088750000000002E-3</v>
+        <v>1.5560000000000001E-3</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -13405,10 +13932,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>2.0869999999999999E-3</v>
+        <v>2.2409999999999999E-3</v>
       </c>
       <c r="C51" s="8">
-        <v>2.0014999999999998E-3</v>
+        <v>1.7129999999999999E-3</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -13420,10 +13947,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>2.32E-3</v>
+        <v>2.5079999999999998E-3</v>
       </c>
       <c r="C52" s="8">
-        <v>2.2162499999999999E-3</v>
+        <v>1.8860000000000001E-3</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -13435,10 +13962,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>2.5820000000000001E-3</v>
+        <v>2.8089999999999999E-3</v>
       </c>
       <c r="C53" s="8">
-        <v>2.4563750000000002E-3</v>
+        <v>2.0769999999999999E-3</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -13450,10 +13977,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>2.8764999999999997E-3</v>
+        <v>3.1519999999999999E-3</v>
       </c>
       <c r="C54" s="8">
-        <v>2.7244999999999995E-3</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -13465,10 +13992,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>3.2065000000000001E-3</v>
+        <v>3.539E-3</v>
       </c>
       <c r="C55" s="8">
-        <v>3.0235000000000001E-3</v>
+        <v>2.5249999999999999E-3</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -13480,10 +14007,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>3.5765000000000003E-3</v>
+        <v>3.9760000000000004E-3</v>
       </c>
       <c r="C56" s="8">
-        <v>3.3571249999999999E-3</v>
+        <v>2.7859999999999998E-3</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -13495,10 +14022,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>3.9909999999999998E-3</v>
+        <v>4.4689999999999999E-3</v>
       </c>
       <c r="C57" s="8">
-        <v>3.7289374999999996E-3</v>
+        <v>3.075E-3</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -13510,10 +14037,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>4.4547499999999995E-3</v>
+        <v>5.025E-3</v>
       </c>
       <c r="C58" s="8">
-        <v>4.143E-3</v>
+        <v>3.395E-3</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -13525,10 +14052,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>4.9732500000000002E-3</v>
+        <v>5.6499999999999996E-3</v>
       </c>
       <c r="C59" s="8">
-        <v>4.6042500000000007E-3</v>
+        <v>3.7490000000000002E-3</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -13540,10 +14067,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>5.5527500000000004E-3</v>
+        <v>6.352E-3</v>
       </c>
       <c r="C60" s="8">
-        <v>5.1177499999999999E-3</v>
+        <v>4.1419999999999998E-3</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -13555,10 +14082,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>6.1992499999999999E-3</v>
+        <v>7.1399999999999996E-3</v>
       </c>
       <c r="C61" s="8">
-        <v>5.6886250000000001E-3</v>
+        <v>4.5770000000000003E-3</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -13570,10 +14097,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>6.9202499999999993E-3</v>
+        <v>8.0219999999999996E-3</v>
       </c>
       <c r="C62" s="8">
-        <v>6.3235624999999993E-3</v>
+        <v>5.058E-3</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -13585,10 +14112,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>7.724E-3</v>
+        <v>9.0089999999999996E-3</v>
       </c>
       <c r="C63" s="8">
-        <v>7.0295624999999994E-3</v>
+        <v>5.5919999999999997E-3</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -13600,10 +14127,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>8.6192500000000002E-3</v>
+        <v>1.0111999999999999E-2</v>
       </c>
       <c r="C64" s="8">
-        <v>7.8138124999999996E-3</v>
+        <v>6.1830000000000001E-3</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -13615,10 +14142,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>9.6150000000000003E-3</v>
+        <v>1.1344E-2</v>
       </c>
       <c r="C65" s="8">
-        <v>8.6841250000000009E-3</v>
+        <v>6.8380000000000003E-3</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -13630,10 +14157,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>1.07215E-2</v>
+        <v>1.2716E-2</v>
       </c>
       <c r="C66" s="8">
-        <v>9.6497499999999986E-3</v>
+        <v>7.5620000000000001E-3</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -13645,10 +14172,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>1.1950499999999999E-2</v>
+        <v>1.4243E-2</v>
       </c>
       <c r="C67" s="8">
-        <v>1.0720875E-2</v>
+        <v>8.3649999999999992E-3</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -13660,10 +14187,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>1.3313999999999999E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="C68" s="8">
-        <v>1.1907875000000002E-2</v>
+        <v>9.2540000000000001E-3</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -13675,10 +14202,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>1.4825500000000002E-2</v>
+        <v>1.7824E-2</v>
       </c>
       <c r="C69" s="8">
-        <v>1.3222562500000002E-2</v>
+        <v>1.0238000000000001E-2</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -13690,10 +14217,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>1.6499750000000001E-2</v>
+        <v>1.9913E-2</v>
       </c>
       <c r="C70" s="8">
-        <v>1.4678E-2</v>
+        <v>1.1327E-2</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -13705,10 +14232,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>1.8352250000000001E-2</v>
+        <v>2.2225999999999999E-2</v>
       </c>
       <c r="C71" s="8">
-        <v>1.6288000000000004E-2</v>
+        <v>1.2533000000000001E-2</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -13720,10 +14247,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>2.0399750000000001E-2</v>
+        <v>2.4782999999999999E-2</v>
       </c>
       <c r="C72" s="8">
-        <v>1.8067687499999999E-2</v>
+        <v>1.3867000000000001E-2</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -13735,10 +14262,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>2.2661000000000001E-2</v>
+        <v>2.7605999999999999E-2</v>
       </c>
       <c r="C73" s="8">
-        <v>2.0034187500000002E-2</v>
+        <v>1.5343000000000001E-2</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -13750,10 +14277,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>2.5155749999999998E-2</v>
+        <v>3.0717999999999999E-2</v>
       </c>
       <c r="C74" s="8">
-        <v>2.2205562499999998E-2</v>
+        <v>1.6976999999999999E-2</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -13765,10 +14292,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>2.79055E-2</v>
+        <v>3.4144000000000001E-2</v>
       </c>
       <c r="C75" s="8">
-        <v>2.4601499999999998E-2</v>
+        <v>1.8783999999999999E-2</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -13780,10 +14307,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>3.0933499999999999E-2</v>
+        <v>3.7911E-2</v>
       </c>
       <c r="C76" s="8">
-        <v>2.7243625E-2</v>
+        <v>2.0782999999999999E-2</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -13795,10 +14322,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>3.4263999999999996E-2</v>
+        <v>4.2046E-2</v>
       </c>
       <c r="C77" s="8">
-        <v>3.0154749999999998E-2</v>
+        <v>2.2994000000000001E-2</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -13810,10 +14337,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>3.7922999999999998E-2</v>
+        <v>4.6578000000000001E-2</v>
       </c>
       <c r="C78" s="8">
-        <v>3.3359437499999998E-2</v>
+        <v>2.5437999999999999E-2</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -13825,10 +14352,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>4.1938750000000004E-2</v>
+        <v>5.1538E-2</v>
       </c>
       <c r="C79" s="8">
-        <v>3.6885250000000001E-2</v>
+        <v>2.8138E-2</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -13840,10 +14367,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>4.6341250000000007E-2</v>
+        <v>5.6956E-2</v>
       </c>
       <c r="C80" s="8">
-        <v>4.0761312500000008E-2</v>
+        <v>3.1123000000000001E-2</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -13855,10 +14382,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>5.1162000000000006E-2</v>
+        <v>6.2867000000000006E-2</v>
       </c>
       <c r="C81" s="8">
-        <v>4.5018687500000001E-2</v>
+        <v>3.4418999999999998E-2</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -13870,10 +14397,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>5.6434750000000006E-2</v>
+        <v>6.9303000000000003E-2</v>
       </c>
       <c r="C82" s="8">
-        <v>4.9691437500000005E-2</v>
+        <v>3.8059000000000003E-2</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -13885,10 +14412,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>6.2195E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="C83" s="8">
-        <v>5.4815375E-2</v>
+        <v>4.2077000000000003E-2</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -13900,10 +14427,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>6.8479499999999999E-2</v>
+        <v>8.3892999999999995E-2</v>
       </c>
       <c r="C84" s="8">
-        <v>6.0428625E-2</v>
+        <v>4.6510000000000003E-2</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -13915,10 +14442,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>7.5327000000000005E-2</v>
+        <v>9.2117000000000004E-2</v>
       </c>
       <c r="C85" s="8">
-        <v>6.6572375000000003E-2</v>
+        <v>5.1397999999999999E-2</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -13930,10 +14457,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>8.2778500000000005E-2</v>
+        <v>0.101007</v>
       </c>
       <c r="C86" s="8">
-        <v>7.3290375000000005E-2</v>
+        <v>5.6786000000000003E-2</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -13945,10 +14472,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>9.0875999999999998E-2</v>
+        <v>0.1106</v>
       </c>
       <c r="C87" s="8">
-        <v>8.0628499999999992E-2</v>
+        <v>6.2720999999999999E-2</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -13960,10 +14487,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>9.9663000000000002E-2</v>
+        <v>0.12092899999999999</v>
       </c>
       <c r="C88" s="8">
-        <v>8.8635624999999996E-2</v>
+        <v>6.9253999999999996E-2</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -13975,10 +14502,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>0.10918449999999999</v>
+        <v>0.13202800000000001</v>
       </c>
       <c r="C89" s="8">
-        <v>9.7362937499999996E-2</v>
+        <v>7.6440999999999995E-2</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -13990,10 +14517,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>0.11948624999999999</v>
+        <v>0.143929</v>
       </c>
       <c r="C90" s="8">
-        <v>0.1068640625</v>
+        <v>8.4339999999999998E-2</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -14005,10 +14532,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>0.13061400000000001</v>
+        <v>0.15665999999999999</v>
       </c>
       <c r="C91" s="8">
-        <v>0.11719437499999999</v>
+        <v>9.3016000000000001E-2</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -14020,10 +14547,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="9">
-        <v>0.14261450000000001</v>
+        <v>0.17024700000000001</v>
       </c>
       <c r="C92" s="8">
-        <v>0.12841150000000001</v>
+        <v>0.102533</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -14035,10 +14562,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="9">
-        <v>0.15553449999999999</v>
+        <v>0.18471399999999999</v>
       </c>
       <c r="C93" s="8">
-        <v>0.14057462500000001</v>
+        <v>0.11296399999999999</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -14050,10 +14577,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="9">
-        <v>0.16941900000000001</v>
+        <v>0.20007900000000001</v>
       </c>
       <c r="C94" s="8">
-        <v>0.15374362499999999</v>
+        <v>0.12438100000000001</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -14065,10 +14592,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="9">
-        <v>0.18431249999999999</v>
+        <v>0.21635399999999999</v>
       </c>
       <c r="C95" s="8">
-        <v>0.16797937500000001</v>
+        <v>0.13686200000000001</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -14080,10 +14607,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="9">
-        <v>0.20025700000000002</v>
+        <v>0.23354800000000001</v>
       </c>
       <c r="C96" s="8">
-        <v>0.18334143750000001</v>
+        <v>0.15048600000000001</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -14095,10 +14622,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="9">
-        <v>0.21729074999999998</v>
+        <v>0.251662</v>
       </c>
       <c r="C97" s="8">
-        <v>0.19988806250000002</v>
+        <v>0.16533200000000001</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -14110,10 +14637,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="9">
-        <v>0.23544850000000001</v>
+        <v>0.27068799999999998</v>
       </c>
       <c r="C98" s="8">
-        <v>0.21767543750000001</v>
+        <v>0.181481</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -14125,10 +14652,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>0.25476025000000002</v>
+        <v>0.29061300000000001</v>
       </c>
       <c r="C99" s="8">
-        <v>0.23675568750000001</v>
+        <v>0.19901199999999999</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -14140,10 +14667,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="9">
-        <v>0.27524850000000001</v>
+        <v>0.31141400000000002</v>
       </c>
       <c r="C100" s="8">
-        <v>0.25717468750000005</v>
+        <v>0.218002</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -14155,10 +14682,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="9">
-        <v>0.29692825</v>
+        <v>0.33305800000000002</v>
       </c>
       <c r="C101" s="8">
-        <v>0.2789708125</v>
+        <v>0.23852000000000001</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -14170,10 +14697,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="9">
-        <v>0.31980500000000001</v>
+        <v>0.35550500000000002</v>
       </c>
       <c r="C102" s="8">
-        <v>0.3021724375</v>
+        <v>0.26062999999999997</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -14185,10 +14712,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="9">
-        <v>0.34387174999999998</v>
+        <v>0.37870199999999998</v>
       </c>
       <c r="C103" s="8">
-        <v>0.32679437499999997</v>
+        <v>0.284383</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -14200,10 +14727,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="9">
-        <v>0.36910874999999999</v>
+        <v>0.402588</v>
       </c>
       <c r="C104" s="8">
-        <v>0.35283656249999995</v>
+        <v>0.30981399999999998</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -14215,10 +14742,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="9">
-        <v>0.39548049999999996</v>
+        <v>0.42709000000000003</v>
       </c>
       <c r="C105" s="8">
-        <v>0.38027981249999998</v>
+        <v>0.33694299999999999</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -14230,10 +14757,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="9">
-        <v>0.42293375</v>
+        <v>0.452127</v>
       </c>
       <c r="C106" s="8">
-        <v>0.40908224999999998</v>
+        <v>0.36576199999999998</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -14245,10 +14772,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="9">
-        <v>0.45139525000000003</v>
+        <v>0.47760799999999998</v>
       </c>
       <c r="C107" s="8">
-        <v>0.43917649999999997</v>
+        <v>0.39623799999999998</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -14260,10 +14787,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="9">
-        <v>0.48076975</v>
+        <v>0.50343199999999999</v>
       </c>
       <c r="C108" s="8">
-        <v>0.47046543750000003</v>
+        <v>0.42830299999999999</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -14275,10 +14802,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="9">
-        <v>0.510938</v>
+        <v>0.52949299999999999</v>
       </c>
       <c r="C109" s="8">
-        <v>0.50281956250000004</v>
+        <v>0.46185100000000001</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -14290,10 +14817,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="9">
-        <v>0.54175525000000002</v>
+        <v>0.555674</v>
       </c>
       <c r="C110" s="8">
-        <v>0.53607387500000003</v>
+        <v>0.49673400000000001</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -14305,10 +14832,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="9">
-        <v>0.57305024999999998</v>
+        <v>0.58185699999999996</v>
       </c>
       <c r="C111" s="8">
-        <v>0.57002531249999999</v>
+        <v>0.53275600000000001</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -14320,10 +14847,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>0.60462499999999997</v>
+        <v>0.60791799999999996</v>
       </c>
       <c r="C112" s="8">
-        <v>0.60443306249999995</v>
+        <v>0.56967000000000001</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -14335,10 +14862,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="9">
-        <v>0.63625624999999997</v>
+        <v>0.63373100000000004</v>
       </c>
       <c r="C113" s="8">
-        <v>0.63901918749999997</v>
+        <v>0.60718099999999997</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -14350,10 +14877,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="9">
-        <v>0.66769750000000005</v>
+        <v>0.65917099999999995</v>
       </c>
       <c r="C114" s="8">
-        <v>0.67347156250000006</v>
+        <v>0.64494200000000002</v>
       </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -14365,10 +14892,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="9">
-        <v>0.69868375000000005</v>
+        <v>0.684114</v>
       </c>
       <c r="C115" s="8">
-        <v>0.70744987500000001</v>
+        <v>0.68256300000000003</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -14380,10 +14907,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="9">
-        <v>0.72893674999999991</v>
+        <v>0.70844200000000002</v>
       </c>
       <c r="C116" s="8">
-        <v>0.7405930624999999</v>
+        <v>0.71961600000000003</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -14395,10 +14922,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="9">
-        <v>0.75817249999999992</v>
+        <v>0.73204199999999997</v>
       </c>
       <c r="C117" s="8">
-        <v>0.7725309374999999</v>
+        <v>0.75564699999999996</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -14410,10 +14937,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="9">
-        <v>0.78611224999999996</v>
+        <v>0.75480899999999995</v>
       </c>
       <c r="C118" s="8">
-        <v>0.80289949999999988</v>
+        <v>0.79019200000000001</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -14425,10 +14952,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="9">
-        <v>0.81249375000000001</v>
+        <v>0.77664800000000001</v>
       </c>
       <c r="C119" s="8">
-        <v>0.83135662499999996</v>
+        <v>0.82279999999999998</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -14440,10 +14967,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="9">
-        <v>0.83708274999999999</v>
+        <v>0.79747699999999999</v>
       </c>
       <c r="C120" s="8">
-        <v>0.8737906875</v>
+        <v>0.85304999999999997</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -14455,10 +14982,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="9">
-        <v>0.92445100000000002</v>
+        <v>0.81722499999999998</v>
       </c>
       <c r="C121" s="8">
-        <v>0.95125749999999998</v>
+        <v>0.880579</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -14485,7 +15012,12 @@
       <c r="C123" s="4"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="5"/>
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C124" s="4"/>
     </row>
   </sheetData>

--- a/Input/Tables.xlsx
+++ b/Input/Tables.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julia\TradLifeModel\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F0424A-AD37-4EDE-B42B-FDB96733A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D6FCA-B8DD-4851-9DC2-5343AE75879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" xr2:uid="{DD655EA7-41E6-405D-B86D-7806049C0A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="937" activeTab="2" xr2:uid="{DD655EA7-41E6-405D-B86D-7806049C0A87}"/>
   </bookViews>
   <sheets>
     <sheet name="death_ben" sheetId="1" r:id="rId1"/>
     <sheet name="DB01" sheetId="2" r:id="rId2"/>
-    <sheet name="surr_ben" sheetId="3" r:id="rId3"/>
-    <sheet name="SV01" sheetId="4" r:id="rId4"/>
-    <sheet name="commission" sheetId="5" r:id="rId5"/>
-    <sheet name="COMM01" sheetId="6" r:id="rId6"/>
-    <sheet name="mortality" sheetId="7" r:id="rId7"/>
-    <sheet name="MORT01" sheetId="8" r:id="rId8"/>
-    <sheet name="lapse" sheetId="9" r:id="rId9"/>
-    <sheet name="LAPSE01" sheetId="10" r:id="rId10"/>
-    <sheet name="expense" sheetId="11" r:id="rId11"/>
-    <sheet name="EXP01" sheetId="12" r:id="rId12"/>
-    <sheet name="disc_rate" sheetId="13" r:id="rId13"/>
-    <sheet name="DISCRT01" sheetId="14" r:id="rId14"/>
-    <sheet name="prem_tax" sheetId="15" r:id="rId15"/>
-    <sheet name="PREMTAX01" sheetId="16" r:id="rId16"/>
-    <sheet name="tax" sheetId="17" r:id="rId17"/>
-    <sheet name="TAX01" sheetId="18" r:id="rId18"/>
+    <sheet name="DB02UDT" sheetId="19" r:id="rId3"/>
+    <sheet name="surr_ben" sheetId="3" r:id="rId4"/>
+    <sheet name="SV01" sheetId="4" r:id="rId5"/>
+    <sheet name="commission" sheetId="5" r:id="rId6"/>
+    <sheet name="COMM01" sheetId="6" r:id="rId7"/>
+    <sheet name="mortality" sheetId="7" r:id="rId8"/>
+    <sheet name="MORT01" sheetId="8" r:id="rId9"/>
+    <sheet name="lapse" sheetId="9" r:id="rId10"/>
+    <sheet name="LAPSE01" sheetId="10" r:id="rId11"/>
+    <sheet name="expense" sheetId="11" r:id="rId12"/>
+    <sheet name="EXP01" sheetId="12" r:id="rId13"/>
+    <sheet name="disc_rate" sheetId="13" r:id="rId14"/>
+    <sheet name="DISCRT01" sheetId="14" r:id="rId15"/>
+    <sheet name="prem_tax" sheetId="15" r:id="rId16"/>
+    <sheet name="PREMTAX01" sheetId="16" r:id="rId17"/>
+    <sheet name="tax" sheetId="17" r:id="rId18"/>
+    <sheet name="TAX01" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Table Type</t>
   </si>
@@ -196,6 +197,21 @@
   </si>
   <si>
     <t>UK AM92 and AF92 Ultimate Rates with Extension to Juvenile Ages</t>
+  </si>
+  <si>
+    <t>DB02UDT</t>
+  </si>
+  <si>
+    <t>User Defined Table</t>
+  </si>
+  <si>
+    <t>inflator</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -611,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,17 +661,20 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1713A79B-D4ED-486B-8C7B-F821E71221B8}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{1713A79B-D4ED-486B-8C7B-F821E71221B8}">
       <formula1>"Mult by Duration, User Defined Table"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{C578C5E4-538C-4ED0-A516-BE486101ACC1}">
-      <formula1>"Mult by Duration, User Defined"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -663,6 +682,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD18206-82FB-4FF6-9490-81A18B6DE74E}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A61CE2EF-632B-4B50-84E2-79A6DA9397C9}">
+      <formula1>"Policy Year"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1A0775-6AD6-40E0-82A1-CEA53AEBB456}">
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -2269,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7A98A-6278-42F9-880F-0EAEA8119C79}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2359,7 +2468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D24362C-599E-4BA3-8DBE-5E41607551A5}">
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -4692,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA7D911-C611-4BF3-8D55-C607761F7490}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4782,7 +4891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C433ED13-870F-4CC6-9ED5-EF9CAD13ECE6}">
   <dimension ref="A1:F124"/>
   <sheetViews>
@@ -6751,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133C7094-1A2D-42F1-A33C-A70FBF73639B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6841,7 +6950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0061369-7D52-4CA7-B619-3F52AD95C67C}">
   <dimension ref="A1:F124"/>
   <sheetViews>
@@ -8322,7 +8431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5F585F-51F1-494D-B979-06A8AC0DC24B}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -8412,7 +8521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E323629-EB40-45A8-9AED-842C65B1CCF4}">
   <dimension ref="A1:F124"/>
   <sheetViews>
@@ -10883,6 +10992,1719 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A4730B-1203-44C5-9E5A-81B2864E1AD6}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655C7E0E-B728-4863-A4B4-54F44AA94643}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -10935,7 +12757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941AA245-4BDD-45ED-AD8E-CDA7F6C649F8}">
   <dimension ref="A1:B121"/>
   <sheetViews>
@@ -12035,7 +13857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4BE0B-E5B8-4964-84F8-36EB5989E63C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -12088,7 +13910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C78FF4-6353-49BA-82DE-F724FCD0325E}">
   <dimension ref="A1:B121"/>
   <sheetViews>
@@ -13075,7 +14897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23558B3-3540-40C9-9F29-580FE7560B88}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -13165,7 +14987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01540C8-B3AD-4608-8D0B-4A87788D02AD}">
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -15023,94 +16845,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD18206-82FB-4FF6-9490-81A18B6DE74E}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{A61CE2EF-632B-4B50-84E2-79A6DA9397C9}">
-      <formula1>"Policy Year"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>